--- a/benchmark.xlsx
+++ b/benchmark.xlsx
@@ -47,16 +47,16 @@
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in"/>
       <style:text-properties fo:color="#ffffff"/>
     </style:style>
+    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#dddddd" style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in"/>
+    </style:style>
+    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
+      <style:table-cell-properties fo:background-color="#eeeeee" style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
+      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in"/>
+    </style:style>
     <style:style style:name="ce2" style:family="table-cell" style:parent-style-name="Default">
       <style:table-cell-properties style:text-align-source="fix" style:repeat-content="false"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in"/>
-    </style:style>
-    <style:style style:name="ce6" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#dddddd" style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
-      <style:paragraph-properties fo:text-align="center" fo:margin-left="0in"/>
-    </style:style>
-    <style:style style:name="ce7" style:family="table-cell" style:parent-style-name="Default">
-      <style:table-cell-properties fo:background-color="#eeeeee" style:text-align-source="fix" style:repeat-content="false" style:vertical-align="middle"/>
       <style:paragraph-properties fo:text-align="center" fo:margin-left="0in"/>
     </style:style>
     <style:style style:name="ce8" style:family="table-cell" style:parent-style-name="Default" style:data-style-name="N11">
@@ -93,7 +93,7 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
             <text:p>Old</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
@@ -110,7 +110,7 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>New</text:p>
           </table:table-cell>
           <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
@@ -127,57 +127,137 @@
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>65.88min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="percentage" office:value="0.3833" calcext:value-type="percentage">
+            <text:p>38.33%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
             <text:p>RNA</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>47.06min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="percentage" office:value="0.5594" calcext:value-type="percentage">
+            <text:p>55.94%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>RNA</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>34.33min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="percentage" office:value="0.6786" calcext:value-type="percentage">
+            <text:p>67.86%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
             <text:p>RNA</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>108.29min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="percentage" office:value="0" calcext:value-type="percentage">
+            <text:p>0.00%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>N/A</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>RNA + 3seq</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>108.29min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="percentage" office:value="0" calcext:value-type="percentage">
+            <text:p>0.00%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="1" calcext:value-type="float">
+            <text:p>1</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
             <text:p>RNA + 3seq</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>67.92min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="percentage" office:value="0.3728" calcext:value-type="percentage">
+            <text:p>37.28%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="float" office:value="2" calcext:value-type="float">
+            <text:p>2</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>RNA + 3seq</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce6" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
+            <text:p>43.04min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce8" office:value-type="percentage" office:value="0.6025" calcext:value-type="percentage">
+            <text:p>60.25%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce6" office:value-type="float" office:value="4" calcext:value-type="float">
+            <text:p>4</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce6" office:value-type="string" calcext:value-type="string">
             <text:p>RNA + 3seq</text:p>
           </table:table-cell>
         </table:table-row>
         <table:table-row table:style-name="ro1">
-          <table:table-cell/>
-          <table:table-cell table:style-name="ce7" table:number-columns-repeated="3"/>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>New</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
+            <text:p>33.34min</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce9" office:value-type="percentage" office:value="0.6921" calcext:value-type="percentage">
+            <text:p>69.21%</text:p>
+          </table:table-cell>
+          <table:table-cell table:style-name="ce7" office:value-type="float" office:value="8" calcext:value-type="float">
+            <text:p>8</text:p>
+          </table:table-cell>
           <table:table-cell table:style-name="ce7" office:value-type="string" calcext:value-type="string">
             <text:p>RNA + 3seq</text:p>
           </table:table-cell>
@@ -200,10 +280,10 @@
   <office:meta>
     <meta:creation-date>2024-06-26T12:35:59.249210364</meta:creation-date>
     <meta:generator>LibreOffice/7.4.7.2$Linux_X86_64 LibreOffice_project/40$Build-2</meta:generator>
-    <dc:date>2024-06-26T16:12:52.194025000</dc:date>
-    <meta:editing-duration>PT36M55S</meta:editing-duration>
-    <meta:editing-cycles>2</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="23" meta:object-count="0"/>
+    <dc:date>2024-06-27T18:35:21.698411667</dc:date>
+    <meta:editing-duration>PT7H9M56S</meta:editing-duration>
+    <meta:editing-cycles>6</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="55" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -221,10 +301,10 @@
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
-              <config:config-item config:name="CursorPositionX" config:type="int">2</config:config-item>
+              <config:config-item config:name="CursorPositionX" config:type="int">3</config:config-item>
               <config:config-item config:name="CursorPositionY" config:type="int">16</config:config-item>
               <config:config-item config:name="ActiveSplitRange" config:type="short">2</config:config-item>
-              <config:config-item config:name="PositionLeft" config:type="int">1</config:config-item>
+              <config:config-item config:name="PositionLeft" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionRight" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionTop" config:type="int">0</config:config-item>
               <config:config-item config:name="PositionBottom" config:type="int">0</config:config-item>
@@ -236,7 +316,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">882</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">999</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
